--- a/biology/Zoologie/Atemnus_politus/Atemnus_politus.xlsx
+++ b/biology/Zoologie/Atemnus_politus/Atemnus_politus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atemnus politus est une espèce de pseudoscorpions de la famille des Atemnidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Espagne, en France, en Italie, en Suisse, en Autriche, en Slovaquie, en Hongrie, en Croatie, en Macédoine du Nord, en Grèce, en Bulgarie, en Roumanie, en Ukraine, en Géorgie et en Azerbaïdjan ;
 au Maroc, en Algérie, en Tunisie et en Libye ;
 en Turquie, au Syrie, en Iran, au Turkménistan, au Kazakhstan, au Kirghizistan, en Ouzbékistan, en Afghanistan, au Pakistan, en Inde, au Népal, au Bhoutan, en Chine et en Mongolie.</t>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 3 mm[2].
-Les mâles mesurent de 2,55 à 2,61 mm et les femelles de 3,38 à 3,47 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 3 mm.
+Les mâles mesurent de 2,55 à 2,61 mm et les femelles de 3,38 à 3,47 mm.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1878 : Études arachnologiques. Septième mémoire (1) XI. Liste des espèces de la famille des Cheliferidae qui habitant l'Algérie et le Maroc. Annales de la Société Entomologique de France, no 5, vol. 8, p. 145-153 (texte intégral).</t>
         </is>
